--- a/03_システムテスト/総合テスト仕様書.xlsx
+++ b/03_システムテスト/総合テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.22.7.30\02 it事業部\100_組織運営\020_システム１課\T.Reborn\無人コールセンター\03_システムテスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC8555-E9B7-4886-8948-696090CFCAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1794B72F-4864-4EBF-9AF4-73F4656378FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="総合テスト試験項目" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -816,14 +816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WorkMailが受信可能であること
 メール連携ジョブが稼働していること</t>
     <rPh sb="9" eb="11">
@@ -841,20 +833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HTMLメールを送信する</t>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレーンテキストのメールを送信する</t>
-    <rPh sb="13" eb="15">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Redmineに問い合せチケットが１件発行されること
 ・添付ファイルが登録されていること</t>
     <rPh sb="29" eb="31">
@@ -867,6 +845,117 @@
   </si>
   <si>
     <t>5-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkMail
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL：https://zukosha-it.awsapps.com/mail
+アカウント：support
+パスワード：Zks0155332200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦</t>
+    <rPh sb="0" eb="1">
+      <t>ハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレーンテキストのメールと添付ファイルを1通送信する</t>
+    <rPh sb="13" eb="15">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLメールと添付ファイルを1通送信する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレーンテキストのメールを2通送信する</t>
+    <rPh sb="14" eb="15">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Redmineに問い合せチケットが２件発行されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレーンテキストに変換される</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・登録時間が９時間ずれてしまう
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→メール連携用のcronタスクがUTC時間で処理されていた。Redmineコンテナの「/etc/localtime」のシンボリックリンク先を「/usr/share/zoneinfo/Japan」に変更して再試験したところ時間のズレがなくなった。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>サイシケン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1368,13 +1457,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1636,7 +1725,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36">
+    <row r="12" spans="1:10" ht="90">
       <c r="A12" s="20" t="s">
         <v>65</v>
       </c>
@@ -1644,21 +1733,29 @@
         <v>16</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="13">
+        <v>45231</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="36">
       <c r="A13" s="21"/>
@@ -1667,82 +1764,64 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="13">
+        <v>45231</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="36">
-      <c r="A14" s="22"/>
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="13">
+        <v>45231</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="22"/>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1758,10 +1837,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="108.58203125" defaultRowHeight="18"/>
@@ -1833,6 +1912,14 @@
       </c>
       <c r="B9" s="19" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="54">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
